--- a/notebooks/data/삼성전자_주가_데이터.xlsx
+++ b/notebooks/data/삼성전자_주가_데이터.xlsx
@@ -512,16 +512,16 @@
         <v>44726</v>
       </c>
       <c r="B3" t="n">
-        <v>60037.58466276252</v>
+        <v>60037.58852483845</v>
       </c>
       <c r="C3" t="n">
-        <v>61018.59094810178</v>
+        <v>61018.59487328352</v>
       </c>
       <c r="D3" t="n">
-        <v>59939.4840342286</v>
+        <v>59939.48788999394</v>
       </c>
       <c r="E3" t="n">
-        <v>60724.2890625</v>
+        <v>60724.29296875</v>
       </c>
       <c r="F3" t="n">
         <v>24606419</v>
@@ -538,16 +538,16 @@
         <v>44727</v>
       </c>
       <c r="B4" t="n">
-        <v>60135.68580750618</v>
+        <v>60135.68186264416</v>
       </c>
       <c r="C4" t="n">
-        <v>60331.88706625823</v>
+        <v>60331.88310852554</v>
       </c>
       <c r="D4" t="n">
-        <v>59056.57888436985</v>
+        <v>59056.57501029655</v>
       </c>
       <c r="E4" t="n">
-        <v>59547.08203125</v>
+        <v>59547.078125</v>
       </c>
       <c r="F4" t="n">
         <v>26811224</v>
@@ -564,16 +564,16 @@
         <v>44728</v>
       </c>
       <c r="B5" t="n">
-        <v>60135.6876860119</v>
+        <v>60135.68375410509</v>
       </c>
       <c r="C5" t="n">
-        <v>60626.19084821428</v>
+        <v>60626.18688423646</v>
       </c>
       <c r="D5" t="n">
-        <v>59350.88262648809</v>
+        <v>59350.87874589492</v>
       </c>
       <c r="E5" t="n">
-        <v>59743.28515625</v>
+        <v>59743.28125</v>
       </c>
       <c r="F5" t="n">
         <v>23394895</v>
